--- a/Files/寄存器、界面分布情况与问题.xlsx
+++ b/Files/寄存器、界面分布情况与问题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test\Moh\github\MOH_viewer\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B5789E-1C3A-44C3-96AB-E15F372AEA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D5CBD-50D9-437F-A4CD-558C8BD36FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{911140D9-DC47-47BB-BA1D-EBAAB029F742}"/>
+    <workbookView xWindow="3330" yWindow="2595" windowWidth="21600" windowHeight="11400" xr2:uid="{911140D9-DC47-47BB-BA1D-EBAAB029F742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="201">
   <si>
     <t>设备ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -830,6 +830,10 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlPanel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +945,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -964,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,12 +984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1010,10 +1016,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0199D01B-1557-4B55-BB88-418505E1B3AE}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1356,927 +1374,933 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="13">
-        <v>3000</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="11">
-        <v>2001</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>185</v>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="M1" s="18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>113</v>
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="13">
-        <v>3001</v>
-      </c>
-      <c r="J2" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="I2" s="11">
+        <v>3000</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2001</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="7"/>
+        <v>154</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="P2" s="1" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>192</v>
+        <v>149</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>114</v>
+        <v>26</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="13">
-        <v>3002</v>
-      </c>
-      <c r="J3" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3001</v>
+      </c>
+      <c r="J3" s="11"/>
       <c r="K3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2024</v>
+        <v>22</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>165</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N3" s="5"/>
       <c r="P3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>129</v>
+        <v>151</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>115</v>
+        <v>27</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="13">
-        <v>3003</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3006</v>
-      </c>
-      <c r="L4" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3002</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2024</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="P4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>117</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="13">
-        <v>3007</v>
-      </c>
-      <c r="J5" s="13">
-        <v>3008</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="12">
-        <v>2025</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>168</v>
+        <v>53</v>
+      </c>
+      <c r="I5" s="11">
+        <v>3003</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3006</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="P5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2048</v>
-      </c>
-      <c r="F6" s="12">
-        <v>2049</v>
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>131</v>
+        <v>54</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3007</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3008</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>22</v>
+        <v>87</v>
+      </c>
+      <c r="L6" s="10">
+        <v>2025</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>22</v>
+        <v>156</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="15"/>
       <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2044</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2048</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2049</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J7" s="14">
-        <v>3012</v>
+        <v>55</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>145</v>
+        <v>22</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2045</v>
+        <v>31</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2044</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="14">
-        <v>3013</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="L8" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="12">
+        <v>3012</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>118</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2045</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="14">
-        <v>3014</v>
-      </c>
-      <c r="J9" s="14">
-        <v>3015</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>170</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I9" s="12">
+        <v>3013</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>120</v>
+        <v>33</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="14">
-        <v>3016</v>
-      </c>
-      <c r="J10" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3014</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3015</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2040</v>
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="13">
-        <v>3023</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I11" s="12">
+        <v>3016</v>
+      </c>
+      <c r="J11" s="12"/>
       <c r="K11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>147</v>
+        <v>22</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>171</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>99</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="13"/>
       <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="13">
-        <v>3018</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>121</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2040</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="I12" s="11">
+        <v>3023</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3018</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I14" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L14" s="10">
         <v>2030</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N14" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="12">
         <v>3020</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I15" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2039</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>126</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="14">
-        <v>3050</v>
+        <v>64</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2039</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>184</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>119</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="12">
+        <v>3050</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>183</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="13">
-        <v>3051</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>101</v>
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>129</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="13">
-        <v>3052</v>
+        <v>66</v>
+      </c>
+      <c r="I19" s="11">
+        <v>3051</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>126</v>
+        <v>92</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="12"/>
+        <v>162</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="11">
+        <v>3052</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>119</v>
+        <v>193</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>175</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>138</v>
+        <v>69</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>118</v>
+        <v>194</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="14">
-        <v>3030</v>
+        <v>70</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>120</v>
+        <v>195</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>22</v>
+        <v>166</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="12">
+        <v>3030</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="K23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L23" s="12">
-        <v>2044</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="14">
-        <v>3049</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="12"/>
       <c r="K24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="11">
-        <v>2045</v>
+        <v>197</v>
+      </c>
+      <c r="L24" s="10">
+        <v>2044</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>139</v>
+        <v>69</v>
+      </c>
+      <c r="I25" s="12">
+        <v>3049</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="9">
+        <v>2045</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="13"/>
       <c r="H26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>140</v>
+        <v>70</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="13">
-        <v>3053</v>
+        <v>23</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="G28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="13">
-        <v>3054</v>
+        <v>73</v>
+      </c>
+      <c r="I28" s="11">
+        <v>3053</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>110</v>
+        <v>45</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="13">
-        <v>3055</v>
+        <v>74</v>
+      </c>
+      <c r="I29" s="11">
+        <v>3054</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>111</v>
+        <v>46</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="13">
-        <v>3056</v>
+        <v>75</v>
+      </c>
+      <c r="I30" s="11">
+        <v>3055</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>190</v>
+        <v>47</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="13">
-        <v>3057</v>
+        <v>76</v>
+      </c>
+      <c r="I31" s="11">
+        <v>3056</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="11">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="11">
         <v>3058</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G33" s="1" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="11">
         <v>3059</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G34" s="1" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D35" s="10"/>
-      <c r="G35" s="1" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="8"/>
+      <c r="G36" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I36" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G36" s="1" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I37" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G37" s="1" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I38" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G38" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I39" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="G39" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I40" s="5" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Files/寄存器、界面分布情况与问题.xlsx
+++ b/Files/寄存器、界面分布情况与问题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test\Moh\github\MOH_viewer\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\work\MOH-Viewer\github\MOH_viewer\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D5CBD-50D9-437F-A4CD-558C8BD36FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46541C70-63F9-49E8-A28B-1CA4C337A04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2595" windowWidth="21600" windowHeight="11400" xr2:uid="{911140D9-DC47-47BB-BA1D-EBAAB029F742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{911140D9-DC47-47BB-BA1D-EBAAB029F742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="200">
   <si>
     <t>设备ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0x203a?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0x2041</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -745,10 +741,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系统累计运行时间？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -773,10 +765,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0x0051?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LT1低液位报警开关</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -825,15 +813,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0x3017?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ControlPanel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备从机地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示最近一个报警信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0051添加一个按钮到控制模式下面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门磁信号？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +837,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,14 +858,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -953,6 +941,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -976,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +989,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1019,19 +1024,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0199D01B-1557-4B55-BB88-418505E1B3AE}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1368,29 +1373,33 @@
     <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="37.625" style="1" customWidth="1"/>
-    <col min="14" max="18" width="9" style="1"/>
+    <col min="14" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="15.875" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.75" style="1" customWidth="1"/>
     <col min="20" max="20" width="32.25" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="M1" s="18" t="s">
-        <v>200</v>
+      <c r="M1" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
+      <c r="E2" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>50</v>
@@ -1405,19 +1414,20 @@
         <v>2001</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>185</v>
+        <v>148</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1431,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>51</v>
@@ -1451,16 +1461,16 @@
       </c>
       <c r="N3" s="5"/>
       <c r="P3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>192</v>
+      <c r="T3" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1474,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>52</v>
@@ -1490,16 +1500,16 @@
         <v>2024</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1513,7 +1523,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>53</v>
@@ -1526,30 +1536,28 @@
       </c>
       <c r="L5" s="10"/>
       <c r="P5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>198</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>54</v>
@@ -1567,17 +1575,17 @@
         <v>2025</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1591,10 +1599,10 @@
         <v>55</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
@@ -1610,7 +1618,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" s="12">
         <v>3012</v>
@@ -1630,20 +1638,20 @@
         <v>86</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1663,15 +1671,15 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>58</v>
@@ -1686,28 +1694,28 @@
         <v>88</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>59</v>
@@ -1731,10 +1739,10 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1751,13 +1759,19 @@
         <v>89</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1774,13 +1788,13 @@
         <v>3018</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" s="10"/>
     </row>
@@ -1789,22 +1803,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>90</v>
@@ -1813,10 +1827,10 @@
         <v>2030</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -1824,13 +1838,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F15" s="12">
         <v>3020</v>
@@ -1839,7 +1853,7 @@
         <v>63</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>22</v>
@@ -1856,21 +1870,21 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="18"/>
       <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>91</v>
@@ -1879,10 +1893,10 @@
         <v>2039</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1896,7 +1910,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>65</v>
@@ -1907,16 +1921,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1930,7 +1944,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="1" t="s">
@@ -1943,13 +1957,13 @@
         <v>92</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1963,10 +1977,10 @@
         <v>43</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>67</v>
@@ -1975,10 +1989,10 @@
         <v>3052</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>22</v>
@@ -1992,67 +2006,65 @@
       <c r="C21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="14" t="s">
         <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>199</v>
-      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="1" t="s">
         <v>71</v>
       </c>
@@ -2060,10 +2072,10 @@
         <v>3030</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>22</v>
@@ -2081,16 +2093,16 @@
       </c>
       <c r="I24" s="12"/>
       <c r="K24" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L24" s="10">
         <v>2044</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2100,7 +2112,7 @@
       <c r="C25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="14" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2123,12 +2135,12 @@
       <c r="C26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2138,12 +2150,12 @@
       <c r="C27" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="14"/>
       <c r="H27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2208,7 +2220,7 @@
         <v>48</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>77</v>
@@ -2222,7 +2234,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>78</v>
@@ -2244,16 +2256,16 @@
         <v>80</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D36" s="8"/>
       <c r="G36" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2261,7 +2273,7 @@
         <v>81</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2269,7 +2281,7 @@
         <v>82</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2277,15 +2289,15 @@
         <v>83</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G40" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2301,6 +2313,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Files/寄存器、界面分布情况与问题.xlsx
+++ b/Files/寄存器、界面分布情况与问题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\work\MOH-Viewer\github\MOH_viewer\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test\Moh\github\MOH_viewer\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46541C70-63F9-49E8-A28B-1CA4C337A04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617DC20-7C2A-46C1-8D8A-4EE5DBBAE364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{911140D9-DC47-47BB-BA1D-EBAAB029F742}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{911140D9-DC47-47BB-BA1D-EBAAB029F742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="207">
   <si>
     <t>设备ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -813,10 +813,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ControlPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>设备从机地址</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -830,6 +826,38 @@
   </si>
   <si>
     <t>门磁信号？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制面板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动充电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0051</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,20 +1052,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,16 +1387,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0199D01B-1557-4B55-BB88-418505E1B3AE}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
@@ -1370,7 +1405,7 @@
     <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
     <col min="13" max="13" width="37.625" style="1" customWidth="1"/>
     <col min="14" max="17" width="9" style="1"/>
@@ -1381,8 +1416,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>202</v>
+      </c>
       <c r="M1" s="13" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -1390,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>177</v>
+        <v>195</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
@@ -1425,9 +1472,9 @@
       <c r="Q2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="19"/>
+      <c r="R2" s="16"/>
       <c r="S2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1470,7 +1517,7 @@
         <v>189</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1517,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>28</v>
@@ -1547,7 +1594,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1585,7 +1632,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1665,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1651,7 +1698,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1671,10 +1718,10 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,10 +1754,10 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1739,10 +1786,10 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1771,7 +1818,7 @@
         <v>186</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1870,10 +1917,10 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2006,7 +2053,7 @@
       <c r="C21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="17" t="s">
         <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2032,11 +2079,11 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="1" t="s">
         <v>70</v>
       </c>
@@ -2056,260 +2103,272 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="12">
-        <v>3030</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="I23" s="15"/>
+      <c r="L23" s="10"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="12">
+        <v>3030</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="K24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L24" s="10">
-        <v>2044</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="12">
-        <v>3049</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="12"/>
       <c r="K25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="9">
-        <v>2045</v>
+        <v>194</v>
+      </c>
+      <c r="L25" s="10">
+        <v>2044</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>138</v>
+        <v>69</v>
+      </c>
+      <c r="I26" s="12">
+        <v>3049</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2045</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="G28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="11">
-        <v>3053</v>
+        <v>107</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="G29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="11">
-        <v>3054</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I30" s="11">
-        <v>3055</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" s="11">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32" s="11">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="11">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I34" s="11">
         <v>3058</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="11">
-        <v>3059</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="11">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I36" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="8"/>
-      <c r="G36" s="1" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="8"/>
+      <c r="G37" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>142</v>
+        <v>81</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G25:G27"/>
+  <mergeCells count="7">
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="G26:G28"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/寄存器、界面分布情况与问题.xlsx
+++ b/Files/寄存器、界面分布情况与问题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test\Moh\github\MOH_viewer\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\work\MOH-Viewer\github\MOH_viewer\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A617DC20-7C2A-46C1-8D8A-4EE5DBBAE364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F581C-878F-4061-BABD-F89A32E76C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{911140D9-DC47-47BB-BA1D-EBAAB029F742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{911140D9-DC47-47BB-BA1D-EBAAB029F742}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +983,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1006,7 +1014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,6 +1066,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,7 +1082,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,7 +1404,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1608,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1632,7 +1646,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1679,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1698,7 +1712,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,10 +1732,10 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1754,10 +1768,10 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1786,10 +1800,10 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1917,10 +1931,10 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
@@ -2053,7 +2067,7 @@
       <c r="C21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="18" t="s">
         <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2079,11 +2093,11 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="1" t="s">
         <v>70</v>
       </c>
@@ -2107,11 +2121,11 @@
       <c r="A23" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="18"/>
       <c r="I23" s="15"/>
       <c r="L23" s="10"/>
       <c r="N23" s="6"/>
@@ -2120,11 +2134,11 @@
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2172,7 +2186,7 @@
       <c r="C26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="18" t="s">
         <v>72</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -2195,7 +2209,7 @@
       <c r="C27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="1" t="s">
         <v>70</v>
       </c>
@@ -2210,7 +2224,7 @@
       <c r="C28" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="1" t="s">
         <v>71</v>
       </c>
